--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 4/04-04-the-countblank-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 4/04-04-the-countblank-function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A352E4CD-AB25-4279-95CE-1F1A894E0A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B3712EF-ABC5-4032-8580-8E1738E0F2D2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D0001A-91DF-4E25-84D0-4F6AE52F0F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="1545" windowWidth="14685" windowHeight="12165" xr2:uid="{229B6CAF-F958-48D3-9CAE-22052FBCE6C5}"/>
+    <workbookView xWindow="5868" yWindow="-24" windowWidth="17280" windowHeight="8880" xr2:uid="{229B6CAF-F958-48D3-9CAE-22052FBCE6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="COUNTBLANK" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
   <si>
     <t>Customer Name</t>
   </si>
@@ -179,6 +178,9 @@
   </si>
   <si>
     <t>No. of Employees Off</t>
+  </si>
+  <si>
+    <t>Why not</t>
   </si>
 </sst>
 </file>
@@ -257,7 +259,40 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -268,6 +303,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F57F7BFA-8DCF-4B84-9DA3-1DE2476AE17A}" name="Order" displayName="Order" ref="A3:C24" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:C24" xr:uid="{F57F7BFA-8DCF-4B84-9DA3-1DE2476AE17A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{70772D5B-A335-4F27-8A40-D335CEF86457}" name="Order ID"/>
+    <tableColumn id="2" xr3:uid="{C45A56AC-0DEA-46B4-A5A8-8C0C04EE43A4}" name="Customer Name"/>
+    <tableColumn id="3" xr3:uid="{0026BEFB-F8A6-4EFD-929E-340985C3DA3E}" name="Email " dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,20 +564,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E06C8-E7E6-45D7-8698-CA7B553F3C55}">
   <dimension ref="A3:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="14" width="6.75" customWidth="1"/>
-    <col min="15" max="15" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" customWidth="1"/>
+    <col min="3" max="3" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" customWidth="1"/>
+    <col min="9" max="14" width="6.69921875" customWidth="1"/>
+    <col min="15" max="15" width="6.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -543,32 +591,32 @@
       <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -579,8 +627,8 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <f>COUNTBLANK(C4:C23)</f>
-        <v>7</v>
+        <f>COUNTBLANK(Order[])</f>
+        <v>8</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -594,8 +642,12 @@
       <c r="M4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <f>COUNTA(I4:N4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -617,8 +669,12 @@
       <c r="N5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <f t="shared" ref="O5:O23" si="0">COUNTA(I5:N5)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -638,8 +694,12 @@
       <c r="N6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -661,8 +721,12 @@
       <c r="K7" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -690,8 +754,12 @@
       <c r="M8" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -717,8 +785,12 @@
       <c r="M9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1006</v>
       </c>
@@ -734,8 +806,12 @@
       <c r="N10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1007</v>
       </c>
@@ -754,8 +830,12 @@
       <c r="K11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1008</v>
       </c>
@@ -775,8 +855,12 @@
       <c r="M12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1009</v>
       </c>
@@ -804,8 +888,12 @@
       <c r="M13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1010</v>
       </c>
@@ -827,8 +915,12 @@
       <c r="L14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1011</v>
       </c>
@@ -851,8 +943,12 @@
       <c r="N15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1012</v>
       </c>
@@ -871,8 +967,12 @@
       <c r="J16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1013</v>
       </c>
@@ -901,8 +1001,12 @@
       <c r="N17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1014</v>
       </c>
@@ -931,8 +1035,12 @@
       <c r="N18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1015</v>
       </c>
@@ -954,8 +1062,12 @@
       <c r="K19" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1016</v>
       </c>
@@ -986,8 +1098,12 @@
       <c r="N20" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1017</v>
       </c>
@@ -1006,8 +1122,12 @@
       <c r="M21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1018</v>
       </c>
@@ -1023,8 +1143,12 @@
       <c r="N22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1019</v>
       </c>
@@ -1053,8 +1177,21 @@
       <c r="N23" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I26" s="3" t="s">
         <v>38</v>
       </c>
@@ -1074,13 +1211,41 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H27" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="I27">
+        <f>COUNTBLANK(I4:I23)</f>
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:N27" si="1">COUNTBLANK(J4:J23)</f>
+        <v>7</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>